--- a/medicine/Enfance/Jenna_Black/Jenna_Black.xlsx
+++ b/medicine/Enfance/Jenna_Black/Jenna_Black.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jennifer Bellak, née en 1965, est une écrivaine américaine de romances paranormales  qui utilise le nom de plume de Jenna Black pour écrire des romans de fantasy urbaine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jenna Black a fait paraître un roman sous son nom d'épouse, Jennifer Barlow et au moins deux nouvelles sous son nom de jeune fille.
 Elle a été élevée à Philadelphie. Elle a obtenu son diplôme universitaire en anthropologie physique et en français à l’université Duke. Elle espérait devenir primatologue, mais a fini par rédiger de la documentation technique. Son premier roman, Watchers in the Night, est sorti en 2006.
@@ -546,29 +560,204 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Guardians of the Night
-(en) Watchers in the Night, 2006
+          <t>Série Guardians of the Night</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Watchers in the Night, 2006
 (en) Secrets in the Shadows, 2007
 (en) Shadows on the Soul, 2007
-(en) Hungers of the Heart, 2008
-Série Morgane Kingsley
-Démon intérieur, Milady, 2009 ((en) Devil inside, 2007)
+(en) Hungers of the Heart, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jenna_Black</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jenna_Black</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Morgane Kingsley</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Démon intérieur, Milady, 2009 ((en) Devil inside, 2007)
 Moindre Mal, Milady, 2009 ((en) The Devil you know, 2008)
 Confiance aveugle, Milady, 2010 ((en) The Devil's due, 2008)
 Faute avouée, Milady, 2010 ((en) Speak of the devil, 2009)
-Péchés capitaux, Milady, 2010 ((en) The devil's playground, 2010)
-Série Fille d'Avalon
-Derrière le voile, J'ai lu, 2013 ((en) Glimmerglass, 2010)
+Péchés capitaux, Milady, 2010 ((en) The devil's playground, 2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jenna_Black</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jenna_Black</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Fille d'Avalon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Derrière le voile, J'ai lu, 2013 ((en) Glimmerglass, 2010)
 La Chasse infernale, J'ai lu, 2013 ((en) Shadowspell, 2011)
-Envoûtant Murmure, J'ai lu, 2014 ((en) Sirensong, 2011)
-Série Descendants
-(en) Dark Descendant, 2011
+Envoûtant Murmure, J'ai lu, 2014 ((en) Sirensong, 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jenna_Black</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jenna_Black</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Descendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Dark Descendant, 2011
 (en) Deadly Descendant, 2012
-(en) ogue Descendant, 2013
-Série Becket Walker
-(en) Nightstruck, 2016
-Romans indépendants
-(en) Hamlet Dreams, 2001Sous le nom de Jennifer Barlow.</t>
+(en) ogue Descendant, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jenna_Black</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jenna_Black</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Becket Walker</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Nightstruck, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jenna_Black</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jenna_Black</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Hamlet Dreams, 2001Sous le nom de Jennifer Barlow.</t>
         </is>
       </c>
     </row>
